--- a/paper/supplementary_tables.xlsx
+++ b/paper/supplementary_tables.xlsx
@@ -466,7 +466,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>SMDW &lt; ref., %</t>
+          <t>SMWD &lt; ref., %</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -754,7 +754,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Imp. general health (EQ5D5L VAS &lt; 73), %</t>
+          <t>Imp. general health (VAS &lt; 73, EQ5D5L), %</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -2194,7 +2194,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>reduced EF, %</t>
+          <t>reduced LVEF, %</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -4888,7 +4888,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>CT abnormality</t>
+          <t>CT abnormality (CT score ≥ 1)</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -5089,7 +5089,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>SMDW &lt; ref.</t>
+          <t>SMWD &lt; ref.</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -5121,7 +5121,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Fatigue (likert CFS)</t>
+          <t>Fatigue score (likert CFS)</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -5188,7 +5188,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>General health (EQ5D5L VAS)</t>
+          <t>General health score (EQ5D5L VAS)</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -5223,7 +5223,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Imp. general health (EQ5D5L VAS &lt; 73)</t>
+          <t>Imp. general health (VAS &lt; 73, EQ5D5L)</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -5255,7 +5255,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Mobility impairment (EQ5D5L)</t>
+          <t>Mobility impairment score (EQ5D5L)</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -5290,7 +5290,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Imp. mobility (EQ5D5L)</t>
+          <t>Imp. mobility (score  &gt; 1, EQ5D5L)</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -5322,7 +5322,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Self-care impairment (EQ5D5L)</t>
+          <t>Self-care impairment score (EQ5D5L)</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -5357,7 +5357,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Imp. self-care (EQ5D5L)</t>
+          <t>Imp. self-care (score  &gt; 1, EQ5D5L)</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -5389,7 +5389,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Activity impairment (EQ5D5L)</t>
+          <t>Activity impairment score (EQ5D5L)</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -5424,7 +5424,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Imp. usual activity (EQ5D5L)</t>
+          <t>Imp. usual activity (score  &gt; 1, EQ5D5L)</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -5456,7 +5456,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Pain/discomfort (EQ5D5L)</t>
+          <t>Pain/discomfort score (EQ5D5L)</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -5491,7 +5491,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Pain/discomfort present (EQ5D5L)</t>
+          <t>Pain/discomfort (score  &gt; 1, EQ5D5L)</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -5523,7 +5523,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Anxiety/depression (EQ5D5L)</t>
+          <t>Anxiety/depression score (EQ5D5L)</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -5558,7 +5558,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Anxiety/depression present (EQ5D5L)</t>
+          <t>Anxiety/depression (score  &gt; 1, EQ5D5L)</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -5590,7 +5590,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Stress (PSS)</t>
+          <t>Stress score (PSS)</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -5657,28 +5657,25 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Somatic symptom disorder (SSD-12)</t>
+          <t>Somatic symptom disorder score (SSD-12)</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
           <t>median: 4 [IQR: 1 - 7.5]
-range: 0 - 24
-complete: n = 35</t>
+range: 0 - 24</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
           <t>median: 5 [IQR: 2 - 10]
-range: 0 - 26
-complete: n = 33</t>
+range: 0 - 26</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
           <t>median: 20 [IQR: 12 - 24]
-range: 7 - 30
-complete: n = 18</t>
+range: 7 - 30</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -5695,28 +5692,25 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Resilience (BRCS)</t>
+          <t>Resilience score (BRCS)</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
           <t>median: 16 [IQR: 12 - 19]
-range: 4 - 20
-complete: n = 34</t>
+range: 4 - 20</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
           <t>median: 16 [IQR: 12 - 18]
-range: 4 - 20
-complete: n = 32</t>
+range: 4 - 20</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
           <t>median: 16 [IQR: 14 - 18]
-range: 9 - 19
-complete: n = 18</t>
+range: 9 - 19</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -5741,7 +5735,7 @@
           <t>low: 35% (n = 12)
 medium: 24% (n = 8)
 high: 41% (n = 14)
-complete: n = 34</t>
+n = 34</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -5749,7 +5743,7 @@
           <t>low: 31% (n = 10)
 medium: 19% (n = 6)
 high: 50% (n = 16)
-complete: n = 32</t>
+n = 32</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -5757,7 +5751,7 @@
           <t>low: 17% (n = 3)
 medium: 39% (n = 7)
 high: 44% (n = 8)
-complete: n = 18</t>
+n = 18</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">

--- a/paper/supplementary_tables.xlsx
+++ b/paper/supplementary_tables.xlsx
@@ -3950,7 +3950,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>ns (p = 0.059)</t>
+          <t>ns (p = 0.058)</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -4058,7 +4058,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>ns (p = 0.58)</t>
+          <t>ns (p = 0.59)</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -4684,7 +4684,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>ns (p = 0.43)</t>
+          <t>ns (p = 0.44)</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -4716,7 +4716,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>p = 0.0091</t>
+          <t>p = 0.009</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -4844,7 +4844,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>ns (p = 0.052)</t>
+          <t>ns (p = 0.051)</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -5077,7 +5077,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>p = 0.0022</t>
+          <t>p = 0.0021</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -5176,7 +5176,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>p = 0.0056</t>
+          <t>p = 0.0055</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -5345,7 +5345,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>p = 0.0087</t>
+          <t>p = 0.0086</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -5377,7 +5377,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>p = 0.0084</t>
+          <t>p = 0.0083</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">

--- a/paper/supplementary_tables.xlsx
+++ b/paper/supplementary_tables.xlsx
@@ -10,9 +10,6 @@
     <sheet name="Table S1" sheetId="1" r:id="rId1"/>
     <sheet name="Table S2" sheetId="2" r:id="rId2"/>
     <sheet name="Table S3" sheetId="3" r:id="rId3"/>
-    <sheet name="Table S4" sheetId="4" r:id="rId4"/>
-    <sheet name="Table S5" sheetId="5" r:id="rId5"/>
-    <sheet name="Table S6" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -356,7 +353,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F100"/>
+  <dimension ref="A1:F106"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -402,7 +399,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>SMWD, m</t>
+          <t>6MWD, m</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -434,7 +431,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>SMWD vs ref., m</t>
+          <t>6MWD vs ref., m</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -466,7 +463,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>SMWD &lt; ref., %</t>
+          <t>6MWD &lt; ref., %</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -754,7 +751,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Imp. general health (VAS &lt; 73, EQ5D5L), %</t>
+          <t>Imp. general health (VAS &lt;73, EQ5D5L), %</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -786,7 +783,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Imp. mobility (EQ5D5L), %</t>
+          <t>Imp. mobility (score &gt;1, EQ5D5L), %</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -818,7 +815,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Imp. self-care (EQ5D5L), %</t>
+          <t>Imp. self-care (score &gt;1, EQ5D5L), %</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -850,7 +847,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Imp. usual activity (EQ5D5L), %</t>
+          <t>Imp. usual activity (score &gt;1, EQ5D5L), %</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -882,7 +879,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Pain/discomfort present (EQ5D5L), %</t>
+          <t>Pain/discomfort (score &gt;1, EQ5D5L), %</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -914,7 +911,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Anxiety/depression present (EQ5D5L), %</t>
+          <t>Anxiety/depression (score &gt;1, EQ5D5L), %</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -978,7 +975,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Fatigue (bimodal CFS ≥ 4), %</t>
+          <t>Fatigue (bimodal CFS ≥4), %</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1074,7 +1071,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Elevated stress (PSS &gt; 5), %</t>
+          <t>Elevated stress (PSS &gt;5), %</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1362,7 +1359,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>reduced FVC, %</t>
+          <t>FVC &lt; 80%, %</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1394,7 +1391,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>reduced FEV1, %</t>
+          <t>FEV1 &lt; 80%, %</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1426,7 +1423,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>reduced FEV1:FVC, %</t>
+          <t>FEV1:FVC &lt; 70%, %</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1458,7 +1455,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>reduced TLC, %</t>
+          <t>TLC &lt; 80%, %</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -1490,7 +1487,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>reduced DLCO, %</t>
+          <t>DLCO &lt; 80%, %</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -1842,7 +1839,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>elevated NT-proBNP, %</t>
+          <t>NT-proBNP &gt;150 pg/mL, %</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -1906,7 +1903,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>elevated D-dimer, %</t>
+          <t>D-dimer &gt;500 µg/L, %</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -1970,7 +1967,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>elevated CRP, %</t>
+          <t>CRP &gt;0.5 mg/L, %</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2034,7 +2031,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>elevated PCT, %</t>
+          <t>PCT &gt;0.15 µg/L, %</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2098,7 +2095,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>elevated IL6, %</t>
+          <t>IL6 &gt;7 pg/mL, %</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2162,7 +2159,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>elevated HbA1c, %</t>
+          <t>HbA1c &gt;5.6%, %</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -2258,7 +2255,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>mMRC</t>
+          <t>Dyspnea score (mMRC)</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -2290,7 +2287,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>ECOG</t>
+          <t>Physical performance score (ECOG)</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -2354,7 +2351,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>CT abnormality, %</t>
+          <t>CT abnormality (CT score ≥1), %</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -2386,7 +2383,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>CT severity score &gt; 5, %</t>
+          <t>CT severity score &gt;5, %</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -3117,17 +3114,17 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>sympt_present</t>
+          <t>treat_steroids</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Symptoms present, %</t>
+          <t>Steroid therapy, %</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>acute COVID-19 till 1-year FUP</t>
+          <t>acute COVID-19</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
@@ -3142,34 +3139,34 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>sympt_number</t>
+          <t>treat_antiinfec</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t># symptoms</t>
+          <t>Anti-infective therapy, %</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>acute COVID-19 till 1-year FUP</t>
+          <t>acute COVID-19</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
@@ -3181,54 +3178,54 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>sleep_sympt</t>
+          <t>treat_macrolides</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Sleep problems, %</t>
+          <t>Macrolide therapy, %</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>acute COVID-19 till 1-year FUP</t>
+          <t>acute COVID-19</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>dyspnoe_sympt</t>
+          <t>treat_antiplat</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Dyspnea, %</t>
+          <t>Anti-platelet therapy, %</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>acute COVID-19 till 1-year FUP</t>
+          <t>acute COVID-19</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
@@ -3238,56 +3235,56 @@
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>cough_sympt</t>
+          <t>treat_anticoag</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Cough, %</t>
+          <t>Anti-coagulation therapy, %</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>acute COVID-19 till 1-year FUP</t>
+          <t>acute COVID-19</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>fever_sympt</t>
+          <t>treat_immunosuppr</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Fever, %</t>
+          <t>Immunosuppression, %</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>acute COVID-19 till 1-year FUP</t>
+          <t>acute COVID-19</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
@@ -3309,12 +3306,12 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>night_sweat_sympt</t>
+          <t>sympt_present</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Night sweat, %</t>
+          <t>Symptoms present, %</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -3324,12 +3321,12 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
@@ -3341,12 +3338,12 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>gastro_sympt</t>
+          <t>sympt_number</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Gastrointestinal, %</t>
+          <t># symptoms</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -3361,7 +3358,7 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
@@ -3373,12 +3370,12 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>anosmia_sympt</t>
+          <t>sleep_sympt</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Hypo/anosmia, %</t>
+          <t>Sleep problems, %</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -3405,12 +3402,12 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>fatigue_sympt</t>
+          <t>dyspnoe_sympt</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Reduced performance, %</t>
+          <t>Dyspnea (mMRC ≥1), %</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -3425,7 +3422,7 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
@@ -3437,12 +3434,12 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>pain_sympt</t>
+          <t>cough_sympt</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Pain, %</t>
+          <t>Cough, %</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -3457,24 +3454,24 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>hair_loss_sympt</t>
+          <t>fever_sympt</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Hair loss, %</t>
+          <t>Fever, %</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -3501,12 +3498,12 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>derma_sympt</t>
+          <t>night_sweat_sympt</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Dermatological, %</t>
+          <t>Night sweating, %</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -3516,42 +3513,234 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
+          <t>gastro_sympt</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>Gastrointestinal symptoms, %</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>acute COVID-19 till 1-year FUP</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>anosmia_sympt</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>Hypo/anosmia, %</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>acute COVID-19 till 1-year FUP</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>fatigue_sympt</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>Reduced performance (ECOG ≥1), %</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>acute COVID-19 till 1-year FUP</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>pain_sympt</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>Pain, %</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>acute COVID-19 till 1-year FUP</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>hair_loss_sympt</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>Hair loss, %</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>acute COVID-19 till 1-year FUP</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>derma_sympt</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>Dermatological symptoms, %</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>acute COVID-19 till 1-year FUP</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
           <t>rehabilitation</t>
         </is>
       </c>
-      <c r="B100" t="inlineStr">
+      <c r="B106" t="inlineStr">
         <is>
           <t>Rehabilitation, %</t>
         </is>
       </c>
-      <c r="D100" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="E100" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F100" t="inlineStr">
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
         <is>
           <t>no</t>
         </is>
@@ -3564,7 +3753,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3573,252 +3762,482 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Evaluated parameter</t>
+          <t>Variable</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Tool</t>
+          <t>Cluster #1</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Stratification scheme</t>
+          <t>Cluster #2</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Cluster #3</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Significance</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Effect size</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Dyspnea</t>
+          <t>N number</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Modified Medical British Research Council (mMRC)</t>
+          <t>36</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Dyspnea: &gt; 0</t>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>18</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Physical performance</t>
+          <t>Smoking</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Eastern Cooperative Oncology Group (ECOG)</t>
+          <t>never: 64% (n = 23)
+ex: 36% (n = 13)
+active: 0% (n = 0)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Reduced performance: &gt; 0</t>
+          <t>never: 61% (n = 20)
+ex: 36% (n = 12)
+active: 3% (n = 1)</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>never: 72% (n = 13)
+ex: 17% (n = 3)
+active: 11% (n = 2)</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>ns (p = 0.33)</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>V = 0.19</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Mobility</t>
+          <t>Comorbidity present</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Six-minute walking distance (SMWD)</t>
+          <t>72% (n = 26)</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>82% (n = 27)</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>67% (n = 12)</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>ns (p = 0.58)</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>V = 0.14</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Mobility</t>
+          <t>Metabolic disease</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Six-minute walking distance versus reference (SMWD vs ref.)</t>
+          <t>39% (n = 14)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Impaired mobility: &lt; 0</t>
+          <t>58% (n = 19)</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>28% (n = 5)</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>ns (p = 0.19)</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>V = 0.23</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Fatigue</t>
+          <t>Diabetes</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Likert 11-item Chalder Fatigue Score (CFS)</t>
+          <t>14% (n = 5)</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>15% (n = 5)</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>17% (n = 3)</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>ns (p = 0.96)</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>V = 0.029</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Fatigue</t>
+          <t>Hypercholesterolemia</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Bimodal 11-item Chalder Fatigue Score (CFS)</t>
+          <t>31% (n = 11)</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Increased fatigue: ≥ 4</t>
+          <t>30% (n = 10)</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0% (n = 0)</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>ns (p = 0.061)</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>V = 0.29</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Self-perceived general health</t>
+          <t>Cardiovascular disease</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>European quality of life 5 dimensions, visual analogue scale (EQ5D5L VAS)</t>
+          <t>36% (n = 13)</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Impaired general health: &lt; 73</t>
+          <t>61% (n = 20)</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>22% (n = 4)</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>p = 0.044</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>V = 0.3</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Mobility impairment</t>
+          <t>Pulmonary disease</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>European quality of life 5 dimensions, mobility sub-score (EQ5D5L mobility)</t>
+          <t>11% (n = 4)</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Impaired mobility: &gt; 1</t>
+          <t>24% (n = 8)</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>17% (n = 3)</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>ns (p = 0.52)</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>V = 0.15</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Self-care impairment</t>
+          <t>Malignancy</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>European quality of life 5 dimensions, self-care sub-score (EQ5D5L self-care)</t>
+          <t>8.3% (n = 3)</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Impaired self care: &gt; 1</t>
+          <t>15% (n = 5)</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0% (n = 0)</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>ns (p = 0.35)</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>V = 0.19</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Usual activity impairment</t>
+          <t>Immune deficiency</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>European quality of life 5 dimensions, activity sub-score (EQ5D5L activity)</t>
+          <t>2.8% (n = 1)</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Impaired activity: &gt; 1</t>
+          <t>3% (n = 1)</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>11% (n = 2)</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>ns (p = 0.5)</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>V = 0.16</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Pain/discomfort</t>
+          <t>Chronic kidney disease</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>European quality of life 5 dimensions, pain/discomfort sub-score (EQ5D5L pain/discomfort)</t>
+          <t>5.6% (n = 2)</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Pain/discomfort present: &gt; 1</t>
+          <t>12% (n = 4)</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>5.6% (n = 1)</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>ns (p = 0.67)</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>V = 0.12</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Anxiety/depression</t>
+          <t>Gastrointestinal disease</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>European quality of life 5 dimensions, anxiety/depression sub-score (EQ5D5L anxiety/depression)</t>
+          <t>11% (n = 4)</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Anxiety/depression present: &gt; 1</t>
+          <t>15% (n = 5)</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>11% (n = 2)</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>ns (p = 0.9)</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>V = 0.059</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Resilience</t>
+          <t>Steroid therapy</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Brief resilient coping scale (BRCS)</t>
+          <t>8.3% (n = 3)</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>30% (n = 10)</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>22% (n = 4)</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>ns (p = 0.14)</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>V = 0.25</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Somatic symptom disorder</t>
+          <t>Rehabilitation</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Somatic symptom disorder – B criteria scale, 12 items (SSD-12)</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>Psychosocial stress</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>4-item perceived stress score (PSS)</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>Elevated stress: &gt; 5</t>
+          <t>no: 86% (n = 31)
+inpatient: 11% (n = 4)
+outpatient: 2.8% (n = 1)</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>no: 58% (n = 19)
+inpatient: 30% (n = 10)
+outpatient: 12% (n = 4)</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>no: 44% (n = 8)
+inpatient: 50% (n = 9)
+outpatient: 5.6% (n = 1)</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>p = 0.027</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>V = 0.28</t>
         </is>
       </c>
     </row>
@@ -3829,7 +4248,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3892,2899 +4311,239 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Sex</t>
+          <t>Number of symptoms</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>female: 42% (n = 15)
-male: 58% (n = 21)</t>
+          <t>median: 0 [IQR: 0 - 1]
+range: 0 - 4</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>female: 18% (n = 6)
-male: 82% (n = 27)</t>
+          <t>median: 1 [IQR: 1 - 2]
+range: 0 - 5</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>female: 72% (n = 13)
-male: 28% (n = 5)</t>
+          <t>median: 4 [IQR: 3.2 - 4.8]
+range: 1 - 9</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>p = 0.0025</t>
+          <t>p &lt; 0.001</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>V = 0.41</t>
+          <t>η² = 0.49</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Age, years</t>
+          <t>Hair loss</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>median: 55 [IQR: 53 - 61]
-range: 19 - 77</t>
+          <t>0% (n = 0)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>median: 63 [IQR: 53 - 71]
-range: 36 - 80</t>
+          <t>3% (n = 1)</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>median: 50 [IQR: 42 - 58]
-range: 32 - 87</t>
+          <t>33% (n = 6)</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>ns (p = 0.058)</t>
+          <t>p &lt; 0.001</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>η² = 0.061</t>
+          <t>V = 0.48</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Weight class</t>
+          <t>Dermatological symptoms</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>normal: 22% (n = 8)
-overweight: 56% (n = 20)
-obesity: 22% (n = 8)</t>
+          <t>2.8% (n = 1)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>normal: 36% (n = 12)
-overweight: 39% (n = 13)
-obesity: 24% (n = 8)</t>
+          <t>21% (n = 7)</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>normal: 44% (n = 8)
-overweight: 44% (n = 8)
-obesity: 11% (n = 2)</t>
+          <t>28% (n = 5)</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>ns (p = 0.54)</t>
+          <t>ns (p = 0.055)</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>V = 0.15</t>
+          <t>V = 0.29</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Smoking</t>
+          <t>CT severity score</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>never: 64% (n = 23)
-ex: 36% (n = 13)
-active: 0% (n = 0)</t>
+          <t>median: 0 [IQR: 0 - 0.25]
+range: 0 - 13</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>never: 61% (n = 20)
-ex: 36% (n = 12)
-active: 3% (n = 1)</t>
+          <t>median: 2 [IQR: 1 - 5]
+range: 0 - 15</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>never: 72% (n = 13)
-ex: 17% (n = 3)
-active: 11% (n = 2)</t>
+          <t>median: 0 [IQR: 0 - 8.8]
+range: 0 - 13</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>ns (p = 0.32)</t>
+          <t>p &lt; 0.001</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>V = 0.19</t>
+          <t>η² = 0.18</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Comorbidity present</t>
+          <t>6MWD, m</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>72% (n = 26)</t>
+          <t>median: 580 [IQR: 530 - 640]
+range: 460 - 740</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>82% (n = 27)</t>
+          <t>median: 520 [IQR: 450 - 580]
+range: 270 - 760</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>67% (n = 12)</t>
+          <t>median: 530 [IQR: 420 - 620]
+range: 310 - 710</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>ns (p = 0.59)</t>
+          <t>p = 0.027</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>V = 0.14</t>
+          <t>η² = 0.085</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Metabolic disease</t>
+          <t>Mobility impairment score (EQ5D5L)</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>39% (n = 14)</t>
+          <t>median: 1 [IQR: 1 - 1]
+range: 1 - 2</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>58% (n = 19)</t>
+          <t>median: 1 [IQR: 1 - 1]
+range: 1 - 2</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>28% (n = 5)</t>
+          <t>median: 1 [IQR: 1 - 2]
+range: 1 - 3</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>ns (p = 0.18)</t>
+          <t>p = 0.021</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>V = 0.23</t>
+          <t>η² = 0.093</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Diabetes</t>
+          <t>Self-care impairment score (EQ5D5L)</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>14% (n = 5)</t>
+          <t>median: 1 [IQR: 1 - 1]
+range: 1 - 1</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>15% (n = 5)</t>
+          <t>median: 1 [IQR: 1 - 1]
+range: 1 - 1</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
-        <is>
-          <t>17% (n = 3)</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>ns (p = 0.96)</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>V = 0.029</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Hypercholesterolemia</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>31% (n = 11)</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>30% (n = 10)</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>0% (n = 0)</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>ns (p = 0.058)</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>V = 0.29</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>CVD</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>36% (n = 13)</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>61% (n = 20)</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>22% (n = 4)</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>p = 0.042</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>V = 0.3</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Pulmonary disease</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>11% (n = 4)</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>24% (n = 8)</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>17% (n = 3)</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>ns (p = 0.51)</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>V = 0.15</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Malignancy</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>8.3% (n = 3)</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>15% (n = 5)</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>0% (n = 0)</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>ns (p = 0.34)</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>V = 0.19</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>Immune deficiency</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>2.8% (n = 1)</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>3% (n = 1)</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>11% (n = 2)</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>ns (p = 0.49)</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>V = 0.16</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>CKD</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>5.6% (n = 2)</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>12% (n = 4)</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>5.6% (n = 1)</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>ns (p = 0.68)</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>V = 0.12</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>GID</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>11% (n = 4)</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>15% (n = 5)</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>11% (n = 2)</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>ns (p = 0.9)</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>V = 0.059</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>Rehabilitation</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>no: 86% (n = 31)
-inpatient: 11% (n = 4)
-outpatient: 2.8% (n = 1)</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>no: 58% (n = 19)
-inpatient: 30% (n = 10)
-outpatient: 12% (n = 4)</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>no: 44% (n = 8)
-inpatient: 50% (n = 9)
-outpatient: 5.6% (n = 1)</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>p = 0.025</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>V = 0.28</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>COVID-19 severity</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>Ambulatory: 33% (n = 12)
-Moderate: 50% (n = 18)
-Severe: 17% (n = 6)</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>Ambulatory: 12% (n = 4)
-Moderate: 67% (n = 22)
-Severe: 21% (n = 7)</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>Ambulatory: 33% (n = 6)
-Moderate: 17% (n = 3)
-Severe: 50% (n = 9)</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>p = 0.012</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>V = 0.3</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F16"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" s="1" customFormat="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Variable</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Cluster #1</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Cluster #2</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Cluster #3</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Significance</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Effect size</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>N number</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>36</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>33</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>18</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Symptoms present</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>28% (n = 10)</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>85% (n = 28)</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>100% (n = 18)</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>p &lt; 0.001</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>V = 0.65</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t># symptoms</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>median: 0 [IQR: 0 - 1]
-range: 0 - 4</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>median: 1 [IQR: 1 - 2]
-range: 0 - 5</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>median: 4 [IQR: 3.2 - 4.8]
-range: 1 - 9</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>p &lt; 0.001</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>η² = 0.49</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Sleep problems</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>11% (n = 4)</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>24% (n = 8)</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>67% (n = 12)</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>p &lt; 0.001</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>V = 0.47</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Dyspnea</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>5.6% (n = 2)</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>18% (n = 6)</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>72% (n = 13)</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>p &lt; 0.001</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>V = 0.59</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Cough</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>5.6% (n = 2)</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>9.1% (n = 3)</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>56% (n = 10)</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>p &lt; 0.001</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>V = 0.52</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Night sweat</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>11% (n = 4)</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>21% (n = 7)</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>28% (n = 5)</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>ns (p = 0.44)</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>V = 0.17</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Gastrointestinal</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>2.8% (n = 1)</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>0% (n = 0)</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>22% (n = 4)</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>p = 0.009</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>V = 0.37</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Hypo/anosmia</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>14% (n = 5)</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>15% (n = 5)</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>11% (n = 2)</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>ns (p = 0.95)</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>V = 0.043</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Reduced performance</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>5.6% (n = 2)</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>48% (n = 16)</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>83% (n = 15)</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>p &lt; 0.001</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>V = 0.62</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Hair loss</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>0% (n = 0)</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>3% (n = 1)</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>33% (n = 6)</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>p &lt; 0.001</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>V = 0.48</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Dermatological</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>2.8% (n = 1)</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>21% (n = 7)</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>28% (n = 5)</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>ns (p = 0.051)</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>V = 0.29</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>LFT abnormality</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>25% (n = 9)</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>42% (n = 14)</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>44% (n = 8)</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>ns (p = 0.37)</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>V = 0.19</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>CT abnormality (CT score ≥ 1)</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>25% (n = 9)</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>85% (n = 28)</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>44% (n = 8)</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>p &lt; 0.001</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>V = 0.54</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>Diastolic dysfunction</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>58% (n = 21)</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>70% (n = 23)</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>56% (n = 10)</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>ns (p = 0.65)</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>V = 0.12</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F24"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" s="1" customFormat="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Variable</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Cluster #1</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Cluster #2</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Cluster #3</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Significance</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Effect size</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>N number</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>36</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>33</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>18</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>SMWD, m</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>median: 580 [IQR: 530 - 640]
-range: 460 - 740</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>median: 520 [IQR: 450 - 580]
-range: 270 - 760</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>median: 530 [IQR: 420 - 620]
-range: 310 - 710</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>p = 0.025</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>η² = 0.085</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>SMWD vs ref., m</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>median: 38 [IQR: 5.1 - 62]
-range: -220 - 130</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>median: -44 [IQR: -79 - 19]
-range: -220 - 120</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>median: -72 [IQR: -100 - -9.3]
-range: -230 - 140</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>p = 0.0021</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>η² = 0.15</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>SMWD &lt; ref.</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>19% (n = 7)</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>73% (n = 24)</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>78% (n = 14)</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>p &lt; 0.001</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>V = 0.54</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Fatigue score (likert CFS)</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>median: 11 [IQR: 11 - 12]
-range: 1 - 24</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>median: 13 [IQR: 10 - 15]
-range: 1 - 25</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>median: 20 [IQR: 16 - 26]
-range: 0 - 32</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>p &lt; 0.001</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>η² = 0.24</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Fatigue (bimodal CFS ≥ 4)</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>22% (n = 8)</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>36% (n = 12)</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>72% (n = 13)</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>p = 0.0055</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>V = 0.38</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>General health score (EQ5D5L VAS)</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>median: 90 [IQR: 80 - 95]
-range: 70 - 100</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>median: 80 [IQR: 80 - 90]
-range: 60 - 100</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>median: 70 [IQR: 61 - 75]
-range: 40 - 90</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>p &lt; 0.001</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>η² = 0.26</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Imp. general health (VAS &lt; 73, EQ5D5L)</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>8.3% (n = 3)</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>9.1% (n = 3)</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>61% (n = 11)</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>p &lt; 0.001</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>V = 0.54</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Mobility impairment score (EQ5D5L)</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
         <is>
           <t>median: 1 [IQR: 1 - 1]
 range: 1 - 2</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>median: 1 [IQR: 1 - 1]
-range: 1 - 2</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>median: 1 [IQR: 1 - 2]
-range: 1 - 3</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>p = 0.02</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>η² = 0.093</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Imp. mobility (score  &gt; 1, EQ5D5L)</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>2.8% (n = 1)</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>15% (n = 5)</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>33% (n = 6)</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>p = 0.023</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>V = 0.33</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Self-care impairment score (EQ5D5L)</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>median: 1 [IQR: 1 - 1]
-range: 1 - 1</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>median: 1 [IQR: 1 - 1]
-range: 1 - 1</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>median: 1 [IQR: 1 - 1]
-range: 1 - 2</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>p = 0.0086</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>p = 0.0091</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
         <is>
           <t>η² = 0.12</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Imp. self-care (score  &gt; 1, EQ5D5L)</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>0% (n = 0)</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>0% (n = 0)</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>17% (n = 3)</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>p = 0.0083</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>V = 0.37</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>Activity impairment score (EQ5D5L)</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>median: 1 [IQR: 1 - 1]
-range: 1 - 1</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>median: 1 [IQR: 1 - 1]
-range: 1 - 2</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>median: 2 [IQR: 2 - 3]
-range: 1 - 3</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>p &lt; 0.001</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>η² = 0.73</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>Imp. usual activity (score  &gt; 1, EQ5D5L)</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>0% (n = 0)</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>3% (n = 1)</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>83% (n = 15)</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>p &lt; 0.001</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>V = 0.86</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>Pain/discomfort score (EQ5D5L)</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>median: 1 [IQR: 1 - 1]
-range: 1 - 2</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>median: 1 [IQR: 1 - 1]
-range: 1 - 3</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>median: 2.5 [IQR: 2 - 3]
-range: 1 - 4</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>p &lt; 0.001</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>η² = 0.39</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>Pain/discomfort (score  &gt; 1, EQ5D5L)</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>22% (n = 8)</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>21% (n = 7)</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>89% (n = 16)</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>p &lt; 0.001</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>V = 0.57</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>Anxiety/depression score (EQ5D5L)</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>median: 1 [IQR: 1 - 1]
-range: 1 - 2</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>median: 1 [IQR: 1 - 1]
-range: 1 - 2</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>median: 2 [IQR: 2 - 3.8]
-range: 1 - 5</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>p &lt; 0.001</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>η² = 0.5</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>Anxiety/depression (score  &gt; 1, EQ5D5L)</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>5.6% (n = 2)</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>15% (n = 5)</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>83% (n = 15)</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>p &lt; 0.001</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>V = 0.69</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>Stress score (PSS)</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>median: 5 [IQR: 1 - 8]
-range: 0 - 10</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>median: 5 [IQR: 3 - 8]
-range: 0 - 11</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>median: 9 [IQR: 8.2 - 10]
-range: 5 - 11</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>p &lt; 0.001</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>η² = 0.27</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>Elevated stress (PSS &gt; 5)</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>39% (n = 14)</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>42% (n = 14)</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>94% (n = 17)</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>p &lt; 0.001</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>V = 0.44</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>Somatic symptom disorder score (SSD-12)</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>median: 4 [IQR: 1 - 7.5]
-range: 0 - 24</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>median: 5 [IQR: 2 - 10]
-range: 0 - 26</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>median: 20 [IQR: 12 - 24]
-range: 7 - 30</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>p &lt; 0.001</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>η² = 0.29</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>Resilience score (BRCS)</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>median: 16 [IQR: 12 - 19]
-range: 4 - 20</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>median: 16 [IQR: 12 - 18]
-range: 4 - 20</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>median: 16 [IQR: 14 - 18]
-range: 9 - 19</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>ns (p = 0.96)</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>η² = -0.022</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>Resilience (BRCS)</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>low: 35% (n = 12)
-medium: 24% (n = 8)
-high: 41% (n = 14)
-n = 34</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>low: 31% (n = 10)
-medium: 19% (n = 6)
-high: 50% (n = 16)
-n = 32</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>low: 17% (n = 3)
-medium: 39% (n = 7)
-high: 44% (n = 8)
-n = 18</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>ns (p = 0.6)</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>V = 0.15</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H27"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" s="1" customFormat="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Response</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Independent variable</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Reference</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Level</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>N level</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>N total</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>OR, 95% CI</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Significance</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>CT abnormality, 1 year FUP</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>COVID-19 severity, acute COVID-19</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Ambulatory</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Moderate</t>
-        </is>
-      </c>
-      <c r="E2">
-        <v>52</v>
-      </c>
-      <c r="F2">
-        <v>101</v>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>7.2 [2.1 - 33]</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>p = 0.027</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>CT abnormality, 1 year FUP</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>COVID-19 severity, acute COVID-19</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Ambulatory</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Severe</t>
-        </is>
-      </c>
-      <c r="E3">
-        <v>26</v>
-      </c>
-      <c r="F3">
-        <v>101</v>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>37 [8.3 - 220]</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>p &lt; 0.001</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>CT abnormality, 1 year FUP</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Sex, acute COVID-19</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>female</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>male</t>
-        </is>
-      </c>
-      <c r="E4">
-        <v>62</v>
-      </c>
-      <c r="F4">
-        <v>101</v>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>6.1 [2.6 - 15]</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>p = 0.0019</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>CT abnormality, 1 year FUP</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Age, acute COVID-19</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>up to 50</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>51 - 65</t>
-        </is>
-      </c>
-      <c r="E5">
-        <v>45</v>
-      </c>
-      <c r="F5">
-        <v>101</v>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>3 [1.1 - 8.5]</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>ns (p = 0.13)</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>CT abnormality, 1 year FUP</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Age, acute COVID-19</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>up to 50</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>over 65</t>
-        </is>
-      </c>
-      <c r="E6">
-        <v>29</v>
-      </c>
-      <c r="F6">
-        <v>101</v>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>4.5 [1.5 - 15]</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>p = 0.043</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>CT abnormality, 1 year FUP</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t># comorbidities, acute COVID-19</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>per item</t>
-        </is>
-      </c>
-      <c r="E7">
-        <v>101</v>
-      </c>
-      <c r="F7">
-        <v>101</v>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>1.5 [1.2 - 2]</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>p = 0.0045</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>CT abnormality, 1 year FUP</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Diabetes, acute COVID-19</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="E8">
-        <v>16</v>
-      </c>
-      <c r="F8">
-        <v>101</v>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>8.7 [2.2 - 57]</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>p = 0.032</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>CT abnormality, 1 year FUP</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Hypertension, acute COVID-19</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="E9">
-        <v>28</v>
-      </c>
-      <c r="F9">
-        <v>101</v>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>4.1 [1.6 - 11]</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>p = 0.027</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>CT abnormality, 1 year FUP</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Anemia, 60-day FUP</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="E10">
-        <v>25</v>
-      </c>
-      <c r="F10">
-        <v>101</v>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>5.5 [2 - 18]</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>p = 0.023</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>CT abnormality, 1 year FUP</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>anti-S1/S2 IgG, 60-day FUP</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>Q1</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>Q2</t>
-        </is>
-      </c>
-      <c r="E11">
-        <v>26</v>
-      </c>
-      <c r="F11">
-        <v>93</v>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>22 [3.7 - 420]</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>p = 0.027</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>CT abnormality, 1 year FUP</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>anti-S1/S2 IgG, 60-day FUP</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>Q1</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>Q3</t>
-        </is>
-      </c>
-      <c r="E12">
-        <v>21</v>
-      </c>
-      <c r="F12">
-        <v>93</v>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>36 [5.8 - 710]</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>p = 0.02</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>CT abnormality, 1 year FUP</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>anti-S1/S2 IgG, 60-day FUP</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>Q1</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>Q4</t>
-        </is>
-      </c>
-      <c r="E13">
-        <v>23</v>
-      </c>
-      <c r="F13">
-        <v>93</v>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>230 [29 - 5600]</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>p &lt; 0.001</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>LFT abnormality, 1 year FUP</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t># comorbidities, acute COVID-19</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>per item</t>
-        </is>
-      </c>
-      <c r="E14">
-        <v>106</v>
-      </c>
-      <c r="F14">
-        <v>106</v>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>1.5 [1.2 - 2]</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>p = 0.0013</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>LFT abnormality, 1 year FUP</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>elevated IL6, 60-day FUP</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="E15">
-        <v>10</v>
-      </c>
-      <c r="F15">
-        <v>106</v>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>10 [2.4 - 71]</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>p = 0.015</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>LFT abnormality, 1 year FUP</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>elevated D-dimer, 60-day FUP</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="E16">
-        <v>38</v>
-      </c>
-      <c r="F16">
-        <v>106</v>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>3.2 [1.4 - 7.7]</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>p = 0.019</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>Diastolic dysfunction, 1 year FUP</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>COVID-19 severity, acute COVID-19</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>Ambulatory</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>Moderate</t>
-        </is>
-      </c>
-      <c r="E17">
-        <v>54</v>
-      </c>
-      <c r="F17">
-        <v>107</v>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>5.2 [1.9 - 15]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>p = 0.02</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>Diastolic dysfunction, 1 year FUP</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>COVID-19 severity, acute COVID-19</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>Ambulatory</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>Severe</t>
-        </is>
-      </c>
-      <c r="E18">
-        <v>26</v>
-      </c>
-      <c r="F18">
-        <v>107</v>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>13 [3.7 - 57]</t>
-        </is>
-      </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>p = 0.0046</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>Diastolic dysfunction, 1 year FUP</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>Age, acute COVID-19</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>up to 50</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>51 - 65</t>
-        </is>
-      </c>
-      <c r="E19">
-        <v>46</v>
-      </c>
-      <c r="F19">
-        <v>107</v>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>11 [3.9 - 33]</t>
-        </is>
-      </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>p &lt; 0.001</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>Diastolic dysfunction, 1 year FUP</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>Age, acute COVID-19</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>up to 50</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>over 65</t>
-        </is>
-      </c>
-      <c r="E20">
-        <v>29</v>
-      </c>
-      <c r="F20">
-        <v>107</v>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>11 [3.7 - 41]</t>
-        </is>
-      </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>p = 0.0026</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>Diastolic dysfunction, 1 year FUP</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t># comorbidities, acute COVID-19</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>per item</t>
-        </is>
-      </c>
-      <c r="E21">
-        <v>107</v>
-      </c>
-      <c r="F21">
-        <v>107</v>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>1.5 [1.2 - 1.9]</t>
-        </is>
-      </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>p = 0.014</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>Diastolic dysfunction, 1 year FUP</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>anti-S1/S2 IgG, 60-day FUP</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>Q1</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>Q2</t>
-        </is>
-      </c>
-      <c r="E22">
-        <v>28</v>
-      </c>
-      <c r="F22">
-        <v>99</v>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>2.9 [0.98 - 9.2]</t>
-        </is>
-      </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>ns (p = 0.14)</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>Diastolic dysfunction, 1 year FUP</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>anti-S1/S2 IgG, 60-day FUP</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>Q1</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>Q3</t>
-        </is>
-      </c>
-      <c r="E23">
-        <v>22</v>
-      </c>
-      <c r="F23">
-        <v>99</v>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>8.5 [2.4 - 37]</t>
-        </is>
-      </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>p = 0.024</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>Diastolic dysfunction, 1 year FUP</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>anti-S1/S2 IgG, 60-day FUP</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>Q1</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>Q4</t>
-        </is>
-      </c>
-      <c r="E24">
-        <v>23</v>
-      </c>
-      <c r="F24">
-        <v>99</v>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>6.8 [2 - 27]</t>
-        </is>
-      </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>p = 0.035</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>Symptoms present, 1 year FUP</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t># symptoms, acute COVID-19</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>per item</t>
-        </is>
-      </c>
-      <c r="E25">
-        <v>104</v>
-      </c>
-      <c r="F25">
-        <v>104</v>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>1.4 [1.1 - 1.8]</t>
-        </is>
-      </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>p = 0.041</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>Symptoms present, 1 year FUP</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>Sleep problems, acute COVID-19</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="E26">
-        <v>40</v>
-      </c>
-      <c r="F26">
-        <v>104</v>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>4.2 [1.7 - 11]</t>
-        </is>
-      </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>p = 0.041</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>Symptoms present, 1 year FUP</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>elevated NT-proBNP, 60-day FUP</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="E27">
-        <v>38</v>
-      </c>
-      <c r="F27">
-        <v>105</v>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>3.6 [1.4 - 9.9]</t>
-        </is>
-      </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>p = 0.043</t>
         </is>
       </c>
     </row>
